--- a/Stimulus/TrialMatrix_TR2.xlsx
+++ b/Stimulus/TrialMatrix_TR2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Experimenter\Documents\Experiments2018\Bias\NewSubject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Experimenter\Documents\git\MitchellEtAlPseudoneglect\Stimulus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,9 +29,6 @@
     <t>size</t>
   </si>
   <si>
-    <t>side</t>
-  </si>
-  <si>
     <t>line</t>
   </si>
   <si>
@@ -45,6 +42,9 @@
   </si>
   <si>
     <t>response</t>
+  </si>
+  <si>
+    <t>shift</t>
   </si>
 </sst>
 </file>
@@ -364,7 +364,7 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -378,22 +378,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
